--- a/branches/master/ValueSet-ml-administrativegendervs.xlsx
+++ b/branches/master/ValueSet-ml-administrativegendervs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T19:41:20+00:00</t>
+    <t>2023-03-07T19:43:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-ml-administrativegendervs.xlsx
+++ b/branches/master/ValueSet-ml-administrativegendervs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T19:43:52+00:00</t>
+    <t>2023-03-07T19:45:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-ml-administrativegendervs.xlsx
+++ b/branches/master/ValueSet-ml-administrativegendervs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T19:45:22+00:00</t>
+    <t>2023-03-07T19:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>xxxYour Work Group</t>
+    <t>My Organization</t>
   </si>
   <si>
     <t>Contact</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
@@ -239,7 +239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -329,37 +329,45 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B16" t="s" s="2">
         <v>25</v>
       </c>
     </row>

--- a/branches/master/ValueSet-ml-administrativegendervs.xlsx
+++ b/branches/master/ValueSet-ml-administrativegendervs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T19:58:04+00:00</t>
+    <t>2023-03-07T20:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-ml-administrativegendervs.xlsx
+++ b/branches/master/ValueSet-ml-administrativegendervs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Multilingual Adm" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from AdministrativeGe" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:06:52+00:00</t>
+    <t>2023-03-07T20:20:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/CodeSystem/ml-administrativegender</t>
+    <t>http://hl7.org/fhir/administrative-gender</t>
   </si>
 </sst>
 </file>

--- a/branches/master/ValueSet-ml-administrativegendervs.xlsx
+++ b/branches/master/ValueSet-ml-administrativegendervs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:20:40+00:00</t>
+    <t>2023-03-07T21:49:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-ml-administrativegendervs.xlsx
+++ b/branches/master/ValueSet-ml-administrativegendervs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -54,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T21:49:30+00:00</t>
+    <t>2023-03-08T20:30:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -301,51 +304,53 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>9</v>
@@ -353,22 +358,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -390,28 +395,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/ValueSet-ml-administrativegendervs.xlsx
+++ b/branches/master/ValueSet-ml-administrativegendervs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T20:30:47+00:00</t>
+    <t>2023-03-08T21:06:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Multilingual Administrative Gender includes all codes from CS (with supplement)</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -353,27 +356,27 @@
         <v>22</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -395,28 +398,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
